--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,16 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Pf4</t>
   </si>
   <si>
     <t>Sdc2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7927192849368589</v>
+        <v>2.631877333333334</v>
       </c>
       <c r="H2">
-        <v>0.7927192849368589</v>
+        <v>7.895632000000001</v>
       </c>
       <c r="I2">
-        <v>0.003951982747077313</v>
+        <v>0.01066221345642817</v>
       </c>
       <c r="J2">
-        <v>0.003951982747077313</v>
+        <v>0.01071963230056122</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.29867130180628</v>
+        <v>1.511114</v>
       </c>
       <c r="N2">
-        <v>1.29867130180628</v>
+        <v>4.533342</v>
       </c>
       <c r="O2">
-        <v>0.02037987186715166</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P2">
-        <v>0.02037987186715166</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q2">
-        <v>1.029481785735894</v>
+        <v>3.977066684682667</v>
       </c>
       <c r="R2">
-        <v>1.029481785735894</v>
+        <v>35.793600162144</v>
       </c>
       <c r="S2">
-        <v>8.054090200662965E-05</v>
+        <v>0.0002390307087446301</v>
       </c>
       <c r="T2">
-        <v>8.054090200662965E-05</v>
+        <v>0.0002662711052316543</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7927192849368589</v>
+        <v>2.631877333333334</v>
       </c>
       <c r="H3">
-        <v>0.7927192849368589</v>
+        <v>7.895632000000001</v>
       </c>
       <c r="I3">
-        <v>0.003951982747077313</v>
+        <v>0.01066221345642817</v>
       </c>
       <c r="J3">
-        <v>0.003951982747077313</v>
+        <v>0.01071963230056122</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.7152766063691</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N3">
-        <v>42.7152766063691</v>
+        <v>138.461282</v>
       </c>
       <c r="O3">
-        <v>0.6703250181912453</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P3">
-        <v>0.6703250181912453</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q3">
-        <v>33.86122352728106</v>
+        <v>121.4710365466916</v>
       </c>
       <c r="R3">
-        <v>33.86122352728106</v>
+        <v>1093.239328920224</v>
       </c>
       <c r="S3">
-        <v>0.002649112906826088</v>
+        <v>0.007300684212695642</v>
       </c>
       <c r="T3">
-        <v>0.002649112906826088</v>
+        <v>0.008132684141177028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7927192849368589</v>
+        <v>2.631877333333334</v>
       </c>
       <c r="H4">
-        <v>0.7927192849368589</v>
+        <v>7.895632000000001</v>
       </c>
       <c r="I4">
-        <v>0.003951982747077313</v>
+        <v>0.01066221345642817</v>
       </c>
       <c r="J4">
-        <v>0.003951982747077313</v>
+        <v>0.01071963230056122</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.7092840273248</v>
+        <v>0.030318</v>
       </c>
       <c r="N4">
-        <v>19.7092840273248</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O4">
-        <v>0.309295109941603</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P4">
-        <v>0.309295109941603</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q4">
-        <v>15.62392954075837</v>
+        <v>0.079793256992</v>
       </c>
       <c r="R4">
-        <v>15.62392954075837</v>
+        <v>0.718139312928</v>
       </c>
       <c r="S4">
-        <v>0.001222328938244596</v>
+        <v>4.795755335282245E-06</v>
       </c>
       <c r="T4">
-        <v>0.001222328938244596</v>
+        <v>5.342288780603775E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>79.3373372856165</v>
+        <v>2.631877333333334</v>
       </c>
       <c r="H5">
-        <v>79.3373372856165</v>
+        <v>7.895632000000001</v>
       </c>
       <c r="I5">
-        <v>0.3955243604005217</v>
+        <v>0.01066221345642817</v>
       </c>
       <c r="J5">
-        <v>0.3955243604005217</v>
+        <v>0.01071963230056122</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.29867130180628</v>
+        <v>19.7096195</v>
       </c>
       <c r="N5">
-        <v>1.29867130180628</v>
+        <v>39.419239</v>
       </c>
       <c r="O5">
-        <v>0.02037987186715166</v>
+        <v>0.2924067120202865</v>
       </c>
       <c r="P5">
-        <v>0.02037987186715166</v>
+        <v>0.2159901291810835</v>
       </c>
       <c r="Q5">
-        <v>103.0331230945555</v>
+        <v>51.87330081067468</v>
       </c>
       <c r="R5">
-        <v>103.0331230945555</v>
+        <v>311.2398048640481</v>
       </c>
       <c r="S5">
-        <v>0.008060735785299745</v>
+        <v>0.003117702779652615</v>
       </c>
       <c r="T5">
-        <v>0.008060735785299745</v>
+        <v>0.002315334765371933</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>79.3373372856165</v>
+        <v>1.020288666666667</v>
       </c>
       <c r="H6">
-        <v>79.3373372856165</v>
+        <v>3.060866</v>
       </c>
       <c r="I6">
-        <v>0.3955243604005217</v>
+        <v>0.00413337483985113</v>
       </c>
       <c r="J6">
-        <v>0.3955243604005217</v>
+        <v>0.004155634158391579</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.7152766063691</v>
+        <v>1.511114</v>
       </c>
       <c r="N6">
-        <v>42.7152766063691</v>
+        <v>4.533342</v>
       </c>
       <c r="O6">
-        <v>0.6703250181912453</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P6">
-        <v>0.6703250181912453</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q6">
-        <v>3388.91630736791</v>
+        <v>1.541772488241333</v>
       </c>
       <c r="R6">
-        <v>3388.91630736791</v>
+        <v>13.875952394172</v>
       </c>
       <c r="S6">
-        <v>0.2651298740805604</v>
+        <v>9.266401592074463E-05</v>
       </c>
       <c r="T6">
-        <v>0.2651298740805604</v>
+        <v>0.0001032241843067145</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>79.3373372856165</v>
+        <v>1.020288666666667</v>
       </c>
       <c r="H7">
-        <v>79.3373372856165</v>
+        <v>3.060866</v>
       </c>
       <c r="I7">
-        <v>0.3955243604005217</v>
+        <v>0.00413337483985113</v>
       </c>
       <c r="J7">
-        <v>0.3955243604005217</v>
+        <v>0.004155634158391579</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.7092840273248</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N7">
-        <v>19.7092840273248</v>
+        <v>138.461282</v>
       </c>
       <c r="O7">
-        <v>0.309295109941603</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P7">
-        <v>0.309295109941603</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q7">
-        <v>1563.682114533882</v>
+        <v>47.09015893224577</v>
       </c>
       <c r="R7">
-        <v>1563.682114533882</v>
+        <v>423.8114303902119</v>
       </c>
       <c r="S7">
-        <v>0.1223337505346616</v>
+        <v>0.002830225127434619</v>
       </c>
       <c r="T7">
-        <v>0.1223337505346616</v>
+        <v>0.003152762993066035</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>120.457682716293</v>
+        <v>1.020288666666667</v>
       </c>
       <c r="H8">
-        <v>120.457682716293</v>
+        <v>3.060866</v>
       </c>
       <c r="I8">
-        <v>0.6005236568524009</v>
+        <v>0.00413337483985113</v>
       </c>
       <c r="J8">
-        <v>0.6005236568524009</v>
+        <v>0.004155634158391579</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.29867130180628</v>
+        <v>0.030318</v>
       </c>
       <c r="N8">
-        <v>1.29867130180628</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O8">
-        <v>0.02037987186715166</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P8">
-        <v>0.02037987186715166</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q8">
-        <v>156.4349356257361</v>
+        <v>0.030933111796</v>
       </c>
       <c r="R8">
-        <v>156.4349356257361</v>
+        <v>0.278398006164</v>
       </c>
       <c r="S8">
-        <v>0.01223859517984528</v>
+        <v>1.859150027519522E-06</v>
       </c>
       <c r="T8">
-        <v>0.01223859517984528</v>
+        <v>2.071022318508709E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>120.457682716293</v>
+        <v>1.020288666666667</v>
       </c>
       <c r="H9">
-        <v>120.457682716293</v>
+        <v>3.060866</v>
       </c>
       <c r="I9">
-        <v>0.6005236568524009</v>
+        <v>0.00413337483985113</v>
       </c>
       <c r="J9">
-        <v>0.6005236568524009</v>
+        <v>0.004155634158391579</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.7152766063691</v>
+        <v>19.7096195</v>
       </c>
       <c r="N9">
-        <v>42.7152766063691</v>
+        <v>39.419239</v>
       </c>
       <c r="O9">
-        <v>0.6703250181912453</v>
+        <v>0.2924067120202865</v>
       </c>
       <c r="P9">
-        <v>0.6703250181912453</v>
+        <v>0.2159901291810835</v>
       </c>
       <c r="Q9">
-        <v>5145.383236588702</v>
+        <v>20.10950140016233</v>
       </c>
       <c r="R9">
-        <v>5145.383236588702</v>
+        <v>120.657008400974</v>
       </c>
       <c r="S9">
-        <v>0.4025460312038588</v>
+        <v>0.001208626546468247</v>
       </c>
       <c r="T9">
-        <v>0.4025460312038588</v>
+        <v>0.0008975759587003204</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>110.36247</v>
+      </c>
+      <c r="H10">
+        <v>331.08741</v>
+      </c>
+      <c r="I10">
+        <v>0.4470984258329099</v>
+      </c>
+      <c r="J10">
+        <v>0.4495061693028696</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.511114</v>
+      </c>
+      <c r="N10">
+        <v>4.533342</v>
+      </c>
+      <c r="O10">
+        <v>0.02241848840500565</v>
+      </c>
+      <c r="P10">
+        <v>0.02483957450832654</v>
+      </c>
+      <c r="Q10">
+        <v>166.77027349158</v>
+      </c>
+      <c r="R10">
+        <v>1500.93246142422</v>
+      </c>
+      <c r="S10">
+        <v>0.01002327087543137</v>
+      </c>
+      <c r="T10">
+        <v>0.01116554198435107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>110.36247</v>
+      </c>
+      <c r="H11">
+        <v>331.08741</v>
+      </c>
+      <c r="I11">
+        <v>0.4470984258329099</v>
+      </c>
+      <c r="J11">
+        <v>0.4495061693028696</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>46.15376066666666</v>
+      </c>
+      <c r="N11">
+        <v>138.461282</v>
+      </c>
+      <c r="O11">
+        <v>0.6847250097299556</v>
+      </c>
+      <c r="P11">
+        <v>0.7586719313825014</v>
+      </c>
+      <c r="Q11">
+        <v>5093.643026962179</v>
+      </c>
+      <c r="R11">
+        <v>45842.78724265961</v>
+      </c>
+      <c r="S11">
+        <v>0.3061394739786871</v>
+      </c>
+      <c r="T11">
+        <v>0.3410277136333578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>110.36247</v>
+      </c>
+      <c r="H12">
+        <v>331.08741</v>
+      </c>
+      <c r="I12">
+        <v>0.4470984258329099</v>
+      </c>
+      <c r="J12">
+        <v>0.4495061693028696</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.030318</v>
+      </c>
+      <c r="N12">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P12">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q12">
+        <v>3.345969365459999</v>
+      </c>
+      <c r="R12">
+        <v>30.11372428913999</v>
+      </c>
+      <c r="S12">
+        <v>0.0002011003315443627</v>
+      </c>
+      <c r="T12">
+        <v>0.0002240181097399374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>120.457682716293</v>
-      </c>
-      <c r="H10">
-        <v>120.457682716293</v>
-      </c>
-      <c r="I10">
-        <v>0.6005236568524009</v>
-      </c>
-      <c r="J10">
-        <v>0.6005236568524009</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>19.7092840273248</v>
-      </c>
-      <c r="N10">
-        <v>19.7092840273248</v>
-      </c>
-      <c r="O10">
-        <v>0.309295109941603</v>
-      </c>
-      <c r="P10">
-        <v>0.309295109941603</v>
-      </c>
-      <c r="Q10">
-        <v>2374.134681928792</v>
-      </c>
-      <c r="R10">
-        <v>2374.134681928792</v>
-      </c>
-      <c r="S10">
-        <v>0.1857390304686968</v>
-      </c>
-      <c r="T10">
-        <v>0.1857390304686968</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>110.36247</v>
+      </c>
+      <c r="H13">
+        <v>331.08741</v>
+      </c>
+      <c r="I13">
+        <v>0.4470984258329099</v>
+      </c>
+      <c r="J13">
+        <v>0.4495061693028696</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.7096195</v>
+      </c>
+      <c r="N13">
+        <v>39.419239</v>
+      </c>
+      <c r="O13">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P13">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q13">
+        <v>2175.202290780165</v>
+      </c>
+      <c r="R13">
+        <v>13051.21374468099</v>
+      </c>
+      <c r="S13">
+        <v>0.1307345806472471</v>
+      </c>
+      <c r="T13">
+        <v>0.0970888955754208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>128.860357</v>
+      </c>
+      <c r="H14">
+        <v>386.581071</v>
+      </c>
+      <c r="I14">
+        <v>0.5220367283096037</v>
+      </c>
+      <c r="J14">
+        <v>0.5248480343913128</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.511114</v>
+      </c>
+      <c r="N14">
+        <v>4.533342</v>
+      </c>
+      <c r="O14">
+        <v>0.02241848840500565</v>
+      </c>
+      <c r="P14">
+        <v>0.02483957450832654</v>
+      </c>
+      <c r="Q14">
+        <v>194.722689507698</v>
+      </c>
+      <c r="R14">
+        <v>1752.504205569282</v>
+      </c>
+      <c r="S14">
+        <v>0.01170327434059593</v>
+      </c>
+      <c r="T14">
+        <v>0.01303700185581174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>128.860357</v>
+      </c>
+      <c r="H15">
+        <v>386.581071</v>
+      </c>
+      <c r="I15">
+        <v>0.5220367283096037</v>
+      </c>
+      <c r="J15">
+        <v>0.5248480343913128</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>46.15376066666666</v>
+      </c>
+      <c r="N15">
+        <v>138.461282</v>
+      </c>
+      <c r="O15">
+        <v>0.6847250097299556</v>
+      </c>
+      <c r="P15">
+        <v>0.7586719313825014</v>
+      </c>
+      <c r="Q15">
+        <v>5947.390076399224</v>
+      </c>
+      <c r="R15">
+        <v>53526.51068759301</v>
+      </c>
+      <c r="S15">
+        <v>0.3574516038711876</v>
+      </c>
+      <c r="T15">
+        <v>0.3981874719339668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>128.860357</v>
+      </c>
+      <c r="H16">
+        <v>386.581071</v>
+      </c>
+      <c r="I16">
+        <v>0.5220367283096037</v>
+      </c>
+      <c r="J16">
+        <v>0.5248480343913128</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.030318</v>
+      </c>
+      <c r="N16">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P16">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q16">
+        <v>3.906788303526</v>
+      </c>
+      <c r="R16">
+        <v>35.161094731734</v>
+      </c>
+      <c r="S16">
+        <v>0.0002348068189813525</v>
+      </c>
+      <c r="T16">
+        <v>0.0002615658529167888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>128.860357</v>
+      </c>
+      <c r="H17">
+        <v>386.581071</v>
+      </c>
+      <c r="I17">
+        <v>0.5220367283096037</v>
+      </c>
+      <c r="J17">
+        <v>0.5248480343913128</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.7096195</v>
+      </c>
+      <c r="N17">
+        <v>39.419239</v>
+      </c>
+      <c r="O17">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P17">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q17">
+        <v>2539.788605104162</v>
+      </c>
+      <c r="R17">
+        <v>15238.73163062497</v>
+      </c>
+      <c r="S17">
+        <v>0.1526470432788388</v>
+      </c>
+      <c r="T17">
+        <v>0.1133619947486174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>3.9665605</v>
+      </c>
+      <c r="H18">
+        <v>7.933121</v>
+      </c>
+      <c r="I18">
+        <v>0.01606925756120717</v>
+      </c>
+      <c r="J18">
+        <v>0.01077052984686476</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.511114</v>
+      </c>
+      <c r="N18">
+        <v>4.533342</v>
+      </c>
+      <c r="O18">
+        <v>0.02241848840500565</v>
+      </c>
+      <c r="P18">
+        <v>0.02483957450832654</v>
+      </c>
+      <c r="Q18">
+        <v>5.993925103397</v>
+      </c>
+      <c r="R18">
+        <v>35.963550620382</v>
+      </c>
+      <c r="S18">
+        <v>0.0003602484643129724</v>
+      </c>
+      <c r="T18">
+        <v>0.0002675353786253521</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>3.9665605</v>
+      </c>
+      <c r="H19">
+        <v>7.933121</v>
+      </c>
+      <c r="I19">
+        <v>0.01606925756120717</v>
+      </c>
+      <c r="J19">
+        <v>0.01077052984686476</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>46.15376066666666</v>
+      </c>
+      <c r="N19">
+        <v>138.461282</v>
+      </c>
+      <c r="O19">
+        <v>0.6847250097299556</v>
+      </c>
+      <c r="P19">
+        <v>0.7586719313825014</v>
+      </c>
+      <c r="Q19">
+        <v>183.0716839868537</v>
+      </c>
+      <c r="R19">
+        <v>1098.430103921122</v>
+      </c>
+      <c r="S19">
+        <v>0.01100302253995075</v>
+      </c>
+      <c r="T19">
+        <v>0.008171298680933766</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>3.9665605</v>
+      </c>
+      <c r="H20">
+        <v>7.933121</v>
+      </c>
+      <c r="I20">
+        <v>0.01606925756120717</v>
+      </c>
+      <c r="J20">
+        <v>0.01077052984686476</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.030318</v>
+      </c>
+      <c r="N20">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P20">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q20">
+        <v>0.120258181239</v>
+      </c>
+      <c r="R20">
+        <v>0.7215490874339999</v>
+      </c>
+      <c r="S20">
+        <v>7.227788863739397E-06</v>
+      </c>
+      <c r="T20">
+        <v>5.367654332607218E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>3.9665605</v>
+      </c>
+      <c r="H21">
+        <v>7.933121</v>
+      </c>
+      <c r="I21">
+        <v>0.01606925756120717</v>
+      </c>
+      <c r="J21">
+        <v>0.01077052984686476</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>19.7096195</v>
+      </c>
+      <c r="N21">
+        <v>39.419239</v>
+      </c>
+      <c r="O21">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P21">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q21">
+        <v>78.17939817872976</v>
+      </c>
+      <c r="R21">
+        <v>312.717592714919</v>
+      </c>
+      <c r="S21">
+        <v>0.004698758768079718</v>
+      </c>
+      <c r="T21">
+        <v>0.002326328132973035</v>
       </c>
     </row>
   </sheetData>
